--- a/apps/load_data/2020/07/PLMOVMAE.xlsx
+++ b/apps/load_data/2020/07/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020-\HHY0720\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020-m\HHY0720\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B5855A-E4C7-41A1-95C2-1B125205FDC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBBCAA4-8939-4A5C-BA1C-BFDE9BE29012}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$265</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$262</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11291" uniqueCount="3243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11270" uniqueCount="3240">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7009,9 +7010,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8287,9 +8285,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8579,9 +8574,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10609,8 +10601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="A263" sqref="A263:XFD265"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB272" sqref="AB272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42650,12 +42642,7 @@
       <c r="AB173" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2328</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>106</v>
       </c>
@@ -42708,16 +42695,16 @@
         <v>20</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH173" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="BI173" s="1" t="s">
         <v>2330</v>
-      </c>
-      <c r="BI173" s="1" t="s">
-        <v>2331</v>
       </c>
       <c r="BM173" s="1" t="s">
         <v>116</v>
@@ -42732,13 +42719,13 @@
         <v>161</v>
       </c>
       <c r="BR173" s="1" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="BS173" s="3">
         <v>36225</v>
       </c>
       <c r="BT173" s="1" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="BU173" s="1" t="s">
         <v>120</v>
@@ -42759,19 +42746,19 @@
         <v>101</v>
       </c>
       <c r="CC173" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="CD173" s="1" t="s">
         <v>2334</v>
       </c>
-      <c r="CD173" s="1" t="s">
+      <c r="CE173" s="1" t="s">
         <v>2335</v>
       </c>
-      <c r="CE173" s="1" t="s">
+      <c r="CG173" s="1" t="s">
         <v>2336</v>
       </c>
-      <c r="CG173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2337</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2338</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>128</v>
@@ -42809,13 +42796,13 @@
         <v>96</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2339</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2340</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2341</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>100</v>
@@ -42847,12 +42834,7 @@
       <c r="AB174" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2328</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>106</v>
       </c>
@@ -42899,7 +42881,7 @@
         <v>101</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BB174" s="1">
         <v>7</v>
@@ -42908,16 +42890,16 @@
         <v>20</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH174" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="BI174" s="1" t="s">
         <v>2344</v>
-      </c>
-      <c r="BI174" s="1" t="s">
-        <v>2345</v>
       </c>
       <c r="BM174" s="1" t="s">
         <v>116</v>
@@ -42929,13 +42911,13 @@
         <v>102</v>
       </c>
       <c r="BR174" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BS174" s="3">
         <v>36949</v>
       </c>
       <c r="BT174" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BU174" s="1" t="s">
         <v>120</v>
@@ -42959,19 +42941,19 @@
         <v>101</v>
       </c>
       <c r="CC174" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="CD174" s="1" t="s">
         <v>2025</v>
       </c>
       <c r="CE174" s="1" t="s">
+        <v>2348</v>
+      </c>
+      <c r="CG174" s="1" t="s">
         <v>2349</v>
       </c>
-      <c r="CG174" s="1" t="s">
+      <c r="CH174" s="1" t="s">
         <v>2350</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2351</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>128</v>
@@ -43009,13 +42991,13 @@
         <v>96</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2351</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2352</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2353</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2354</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>100</v>
@@ -43047,12 +43029,7 @@
       <c r="AB175" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2328</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>106</v>
       </c>
@@ -43099,7 +43076,7 @@
         <v>101</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BB175" s="1">
         <v>7</v>
@@ -43108,16 +43085,16 @@
         <v>20</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH175" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="BI175" s="1" t="s">
         <v>2357</v>
-      </c>
-      <c r="BI175" s="1" t="s">
-        <v>2358</v>
       </c>
       <c r="BM175" s="1" t="s">
         <v>116</v>
@@ -43132,13 +43109,13 @@
         <v>161</v>
       </c>
       <c r="BR175" s="1" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BS175" s="3">
         <v>36825</v>
       </c>
       <c r="BT175" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="BU175" s="1" t="s">
         <v>120</v>
@@ -43162,19 +43139,19 @@
         <v>101</v>
       </c>
       <c r="CC175" s="1" t="s">
+        <v>2360</v>
+      </c>
+      <c r="CD175" s="1" t="s">
         <v>2361</v>
       </c>
-      <c r="CD175" s="1" t="s">
+      <c r="CE175" s="1" t="s">
         <v>2362</v>
       </c>
-      <c r="CE175" s="1" t="s">
+      <c r="CG175" s="1" t="s">
         <v>2363</v>
       </c>
-      <c r="CG175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2364</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2365</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>128</v>
@@ -43212,13 +43189,13 @@
         <v>96</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2365</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2366</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2367</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2368</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>100</v>
@@ -43247,12 +43224,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2328</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>106</v>
       </c>
@@ -43302,7 +43274,7 @@
         <v>101</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BB176" s="1">
         <v>7</v>
@@ -43311,13 +43283,13 @@
         <v>20</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BI176" s="1" t="s">
         <v>943</v>
@@ -43329,7 +43301,7 @@
         <v>105</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>120</v>
@@ -43347,16 +43319,16 @@
         <v>101</v>
       </c>
       <c r="CC176" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="CD176" s="1" t="s">
         <v>1249</v>
       </c>
       <c r="CE176" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="CG176" s="1" t="s">
         <v>2374</v>
-      </c>
-      <c r="CG176" s="1" t="s">
-        <v>2375</v>
       </c>
       <c r="CH176" s="1" t="s">
         <v>949</v>
@@ -43397,13 +43369,13 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2375</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2376</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2377</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2378</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
@@ -43435,12 +43407,7 @@
       <c r="AB177" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2328</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>106</v>
       </c>
@@ -43490,7 +43457,7 @@
         <v>101</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BB177" s="1">
         <v>7</v>
@@ -43499,13 +43466,13 @@
         <v>20</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>377</v>
@@ -43517,7 +43484,7 @@
         <v>105</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>120</v>
@@ -43538,13 +43505,13 @@
         <v>691</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CG177" s="1" t="s">
         <v>2384</v>
-      </c>
-      <c r="CG177" s="1" t="s">
-        <v>2385</v>
       </c>
       <c r="CH177" s="1" t="s">
         <v>384</v>
@@ -43585,13 +43552,13 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2385</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2386</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2387</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2388</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
@@ -43620,12 +43587,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2328</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>106</v>
       </c>
@@ -43675,7 +43637,7 @@
         <v>101</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BB178" s="1">
         <v>7</v>
@@ -43684,13 +43646,13 @@
         <v>20</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>956</v>
@@ -43702,7 +43664,7 @@
         <v>105</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>120</v>
@@ -43720,16 +43682,16 @@
         <v>101</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="CD178" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="CD178" s="1" t="s">
-        <v>2393</v>
-      </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2394</v>
-      </c>
-      <c r="CG178" s="1" t="s">
-        <v>2395</v>
       </c>
       <c r="CH178" s="1" t="s">
         <v>961</v>
@@ -43770,13 +43732,13 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2395</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2396</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2397</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2398</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
@@ -43811,12 +43773,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2328</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>106</v>
       </c>
@@ -43863,7 +43820,7 @@
         <v>101</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="BB179" s="1">
         <v>7</v>
@@ -43872,13 +43829,13 @@
         <v>20</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>418</v>
@@ -43893,13 +43850,13 @@
         <v>117</v>
       </c>
       <c r="BR179" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BS179" s="3">
         <v>35243</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>120</v>
@@ -43917,16 +43874,16 @@
         <v>101</v>
       </c>
       <c r="CC179" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="CD179" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="CD179" s="1" t="s">
+      <c r="CE179" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CG179" s="1" t="s">
         <v>2406</v>
-      </c>
-      <c r="CG179" s="1" t="s">
-        <v>2407</v>
       </c>
       <c r="CH179" s="1" t="s">
         <v>425</v>
@@ -43967,13 +43924,13 @@
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2407</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2410</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
@@ -44002,12 +43959,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2328</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>106</v>
       </c>
@@ -44057,7 +44009,7 @@
         <v>101</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="BB180" s="1">
         <v>7</v>
@@ -44066,13 +44018,13 @@
         <v>20</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>956</v>
@@ -44084,7 +44036,7 @@
         <v>105</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>120</v>
@@ -44102,16 +44054,16 @@
         <v>101</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2414</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2415</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2416</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2417</v>
-      </c>
-      <c r="CG180" s="1" t="s">
-        <v>2418</v>
       </c>
       <c r="CH180" s="1" t="s">
         <v>961</v>
@@ -44152,13 +44104,13 @@
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2418</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2419</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2420</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2421</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
@@ -44187,12 +44139,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2328</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>106</v>
       </c>
@@ -44242,7 +44189,7 @@
         <v>101</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BB181" s="1">
         <v>7</v>
@@ -44251,13 +44198,13 @@
         <v>20</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH181" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BI181" s="1" t="s">
         <v>956</v>
@@ -44272,7 +44219,7 @@
         <v>161</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>120</v>
@@ -44290,16 +44237,16 @@
         <v>101</v>
       </c>
       <c r="CC181" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="CD181" s="1" t="s">
         <v>2426</v>
       </c>
-      <c r="CD181" s="1" t="s">
+      <c r="CE181" s="1" t="s">
         <v>2427</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CG181" s="1" t="s">
         <v>2428</v>
-      </c>
-      <c r="CG181" s="1" t="s">
-        <v>2429</v>
       </c>
       <c r="CH181" s="1" t="s">
         <v>961</v>
@@ -44340,13 +44287,13 @@
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2430</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2431</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2432</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
@@ -44375,12 +44322,7 @@
       <c r="AA182" s="1">
         <v>0</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2328</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>106</v>
       </c>
@@ -44427,7 +44369,7 @@
         <v>101</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BB182" s="1">
         <v>7</v>
@@ -44436,16 +44378,16 @@
         <v>20</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH182" s="1" t="s">
+        <v>2434</v>
+      </c>
+      <c r="BI182" s="1" t="s">
         <v>2435</v>
-      </c>
-      <c r="BI182" s="1" t="s">
-        <v>2436</v>
       </c>
       <c r="BM182" s="1" t="s">
         <v>116</v>
@@ -44457,13 +44399,13 @@
         <v>228</v>
       </c>
       <c r="BR182" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="BS182" s="3">
         <v>34307</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>120</v>
@@ -44481,19 +44423,19 @@
         <v>101</v>
       </c>
       <c r="CC182" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="CD182" s="1" t="s">
         <v>422</v>
       </c>
       <c r="CE182" s="1" t="s">
+        <v>2439</v>
+      </c>
+      <c r="CG182" s="1" t="s">
         <v>2440</v>
       </c>
-      <c r="CG182" s="1" t="s">
+      <c r="CH182" s="1" t="s">
         <v>2441</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2442</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>128</v>
@@ -44507,13 +44449,13 @@
         <v>88</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>2444</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>2445</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>101</v>
@@ -44525,19 +44467,19 @@
         <v>94</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2448</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2449</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
@@ -44569,12 +44511,7 @@
       <c r="AA183" s="1">
         <v>0</v>
       </c>
-      <c r="AC183" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD183" s="1" t="s">
-        <v>2328</v>
-      </c>
+      <c r="AC183" s="3"/>
       <c r="AF183" s="1" t="s">
         <v>106</v>
       </c>
@@ -44624,7 +44561,7 @@
         <v>101</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BB183" s="1">
         <v>7</v>
@@ -44633,13 +44570,13 @@
         <v>20</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BM183" s="1" t="s">
         <v>116</v>
@@ -44648,7 +44585,7 @@
         <v>105</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>120</v>
@@ -44669,16 +44606,16 @@
         <v>101</v>
       </c>
       <c r="CC183" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="CD183" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="CD183" s="1" t="s">
+      <c r="CE183" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="CE183" s="1" t="s">
+      <c r="CG183" s="1" t="s">
         <v>2456</v>
-      </c>
-      <c r="CG183" s="1" t="s">
-        <v>2457</v>
       </c>
       <c r="CH183" s="1" t="s">
         <v>128</v>
@@ -44719,13 +44656,13 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2458</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2459</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2460</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
@@ -44754,12 +44691,7 @@
       <c r="AA184" s="1">
         <v>0</v>
       </c>
-      <c r="AC184" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD184" s="1" t="s">
-        <v>2328</v>
-      </c>
+      <c r="AC184" s="3"/>
       <c r="AF184" s="1" t="s">
         <v>106</v>
       </c>
@@ -44806,7 +44738,7 @@
         <v>101</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BB184" s="1">
         <v>7</v>
@@ -44815,16 +44747,16 @@
         <v>20</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH184" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="BI184" s="1" t="s">
         <v>2463</v>
-      </c>
-      <c r="BI184" s="1" t="s">
-        <v>2464</v>
       </c>
       <c r="BM184" s="1" t="s">
         <v>116</v>
@@ -44836,13 +44768,13 @@
         <v>117</v>
       </c>
       <c r="BR184" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BS184" s="3">
         <v>35950</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>120</v>
@@ -44860,19 +44792,19 @@
         <v>101</v>
       </c>
       <c r="CC184" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="CD184" s="1" t="s">
         <v>1831</v>
       </c>
       <c r="CE184" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="CG184" s="1" t="s">
         <v>2468</v>
       </c>
-      <c r="CG184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2469</v>
-      </c>
-      <c r="CH184" s="1" t="s">
-        <v>2470</v>
       </c>
       <c r="CI184" s="1" t="s">
         <v>128</v>
@@ -44910,13 +44842,13 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2470</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2471</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2472</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2473</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
@@ -44997,7 +44929,7 @@
         <v>101</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BB185" s="1">
         <v>7</v>
@@ -45006,16 +44938,16 @@
         <v>20</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH185" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="BI185" s="1" t="s">
         <v>2476</v>
-      </c>
-      <c r="BI185" s="1" t="s">
-        <v>2477</v>
       </c>
       <c r="BM185" s="1" t="s">
         <v>116</v>
@@ -45027,7 +44959,7 @@
         <v>161</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>120</v>
@@ -45045,19 +44977,19 @@
         <v>101</v>
       </c>
       <c r="CC185" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="CD185" s="1" t="s">
         <v>422</v>
       </c>
       <c r="CE185" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="CG185" s="1" t="s">
         <v>2480</v>
       </c>
-      <c r="CG185" s="1" t="s">
+      <c r="CH185" s="1" t="s">
         <v>2481</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2482</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>128</v>
@@ -45095,13 +45027,13 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2482</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2483</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2484</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2485</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
@@ -45176,7 +45108,7 @@
         <v>101</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BB186" s="1">
         <v>7</v>
@@ -45185,13 +45117,13 @@
         <v>20</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BI186" s="1" t="s">
         <v>1881</v>
@@ -45206,13 +45138,13 @@
         <v>228</v>
       </c>
       <c r="BR186" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BS186" s="3">
         <v>36099</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>120</v>
@@ -45230,16 +45162,16 @@
         <v>101</v>
       </c>
       <c r="CC186" s="1" t="s">
+        <v>2490</v>
+      </c>
+      <c r="CD186" s="1" t="s">
         <v>2491</v>
       </c>
-      <c r="CD186" s="1" t="s">
+      <c r="CE186" s="1" t="s">
         <v>2492</v>
       </c>
-      <c r="CE186" s="1" t="s">
+      <c r="CG186" s="1" t="s">
         <v>2493</v>
-      </c>
-      <c r="CG186" s="1" t="s">
-        <v>2494</v>
       </c>
       <c r="CH186" s="1" t="s">
         <v>1887</v>
@@ -45280,13 +45212,13 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2495</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2496</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2497</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
@@ -45361,7 +45293,7 @@
         <v>101</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BB187" s="1">
         <v>7</v>
@@ -45370,16 +45302,16 @@
         <v>20</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2501</v>
       </c>
       <c r="BM187" s="1" t="s">
         <v>116</v>
@@ -45391,13 +45323,13 @@
         <v>102</v>
       </c>
       <c r="BR187" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BS187" s="3">
         <v>37735</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>120</v>
@@ -45415,19 +45347,19 @@
         <v>101</v>
       </c>
       <c r="CC187" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="CD187" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="CD187" s="1" t="s">
+      <c r="CE187" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="CE187" s="1" t="s">
+      <c r="CG187" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="CG187" s="1" t="s">
+      <c r="CH187" s="1" t="s">
         <v>2507</v>
-      </c>
-      <c r="CH187" s="1" t="s">
-        <v>2508</v>
       </c>
       <c r="CI187" s="1" t="s">
         <v>128</v>
@@ -45465,13 +45397,13 @@
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2509</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2510</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2511</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
@@ -45549,7 +45481,7 @@
         <v>101</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BB188" s="1">
         <v>7</v>
@@ -45558,13 +45490,13 @@
         <v>20</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>116</v>
@@ -45573,7 +45505,7 @@
         <v>105</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>120</v>
@@ -45591,16 +45523,16 @@
         <v>101</v>
       </c>
       <c r="CC188" s="1" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="CD188" s="1" t="s">
         <v>885</v>
       </c>
       <c r="CE188" s="1" t="s">
+        <v>2516</v>
+      </c>
+      <c r="CG188" s="1" t="s">
         <v>2517</v>
-      </c>
-      <c r="CG188" s="1" t="s">
-        <v>2518</v>
       </c>
       <c r="CH188" s="1" t="s">
         <v>128</v>
@@ -45623,7 +45555,7 @@
         <v>186</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>101</v>
@@ -45635,19 +45567,19 @@
         <v>94</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2520</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2522</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2523</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
@@ -45683,7 +45615,7 @@
         <v>106</v>
       </c>
       <c r="AG189" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="AH189" s="1" t="s">
         <v>1948</v>
@@ -45728,7 +45660,7 @@
         <v>101</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BB189" s="1">
         <v>7</v>
@@ -45737,13 +45669,13 @@
         <v>20</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="BM189" s="1" t="s">
         <v>116</v>
@@ -45752,7 +45684,7 @@
         <v>105</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>120</v>
@@ -45761,7 +45693,7 @@
         <v>0</v>
       </c>
       <c r="BZ189" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="CA189" s="1" t="s">
         <v>122</v>
@@ -45773,13 +45705,13 @@
         <v>1620</v>
       </c>
       <c r="CD189" s="1" t="s">
+        <v>2529</v>
+      </c>
+      <c r="CE189" s="1" t="s">
         <v>2530</v>
       </c>
-      <c r="CE189" s="1" t="s">
+      <c r="CG189" s="1" t="s">
         <v>2531</v>
-      </c>
-      <c r="CG189" s="1" t="s">
-        <v>2532</v>
       </c>
       <c r="CH189" s="1" t="s">
         <v>128</v>
@@ -45820,13 +45752,13 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2532</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2534</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2535</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
@@ -45904,7 +45836,7 @@
         <v>101</v>
       </c>
       <c r="AZ190" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="BB190" s="1">
         <v>7</v>
@@ -45913,16 +45845,16 @@
         <v>20</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH190" s="1" t="s">
+        <v>2537</v>
+      </c>
+      <c r="BI190" s="1" t="s">
         <v>2538</v>
-      </c>
-      <c r="BI190" s="1" t="s">
-        <v>2539</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>116</v>
@@ -45934,13 +45866,13 @@
         <v>102</v>
       </c>
       <c r="BR190" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BS190" s="3">
         <v>43602</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>120</v>
@@ -45964,13 +45896,13 @@
         <v>973</v>
       </c>
       <c r="CE190" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="CG190" s="1" t="s">
         <v>2542</v>
       </c>
-      <c r="CG190" s="1" t="s">
+      <c r="CH190" s="1" t="s">
         <v>2543</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2544</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>128</v>
@@ -46008,13 +45940,13 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2546</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2547</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
@@ -46092,7 +46024,7 @@
         <v>101</v>
       </c>
       <c r="AZ191" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="BB191" s="1">
         <v>7</v>
@@ -46101,13 +46033,13 @@
         <v>20</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="BI191" s="1" t="s">
         <v>956</v>
@@ -46119,7 +46051,7 @@
         <v>105</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>120</v>
@@ -46137,16 +46069,16 @@
         <v>101</v>
       </c>
       <c r="CC191" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="CD191" s="1" t="s">
         <v>2552</v>
       </c>
-      <c r="CD191" s="1" t="s">
+      <c r="CE191" s="1" t="s">
         <v>2553</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CG191" s="1" t="s">
         <v>2554</v>
-      </c>
-      <c r="CG191" s="1" t="s">
-        <v>2555</v>
       </c>
       <c r="CH191" s="1" t="s">
         <v>961</v>
@@ -46187,13 +46119,13 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2555</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2557</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2558</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
@@ -46232,7 +46164,7 @@
         <v>42247</v>
       </c>
       <c r="AD192" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="AF192" s="1" t="s">
         <v>106</v>
@@ -46286,16 +46218,16 @@
         <v>20</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH192" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="BI192" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="BI192" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="BM192" s="1" t="s">
         <v>116</v>
@@ -46307,13 +46239,13 @@
         <v>228</v>
       </c>
       <c r="BR192" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BS192" s="3">
         <v>36580</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>120</v>
@@ -46334,7 +46266,7 @@
         <v>101</v>
       </c>
       <c r="CC192" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="CD192" s="1" t="s">
         <v>294</v>
@@ -46343,10 +46275,10 @@
         <v>1649</v>
       </c>
       <c r="CG192" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="CH192" s="1" t="s">
         <v>2566</v>
-      </c>
-      <c r="CH192" s="1" t="s">
-        <v>2567</v>
       </c>
       <c r="CI192" s="1" t="s">
         <v>128</v>
@@ -46384,13 +46316,13 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2568</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2569</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2570</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
@@ -46471,13 +46403,13 @@
         <v>20</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="BI193" s="1" t="s">
         <v>1871</v>
@@ -46492,13 +46424,13 @@
         <v>117</v>
       </c>
       <c r="BR193" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="BS193" s="3">
         <v>37747</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>120</v>
@@ -46522,10 +46454,10 @@
         <v>678</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="CG193" s="1" t="s">
         <v>2575</v>
-      </c>
-      <c r="CG193" s="1" t="s">
-        <v>2576</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>1875</v>
@@ -46566,13 +46498,13 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2576</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2577</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2578</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2579</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
@@ -46656,13 +46588,13 @@
         <v>20</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH194" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>116</v>
@@ -46671,7 +46603,7 @@
         <v>105</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>120</v>
@@ -46689,16 +46621,16 @@
         <v>101</v>
       </c>
       <c r="CC194" s="1" t="s">
+        <v>2582</v>
+      </c>
+      <c r="CD194" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="CD194" s="1" t="s">
+      <c r="CE194" s="1" t="s">
         <v>2584</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2585</v>
-      </c>
-      <c r="CG194" s="1" t="s">
-        <v>2586</v>
       </c>
       <c r="CH194" s="1" t="s">
         <v>128</v>
@@ -46739,13 +46671,13 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2587</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2588</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2589</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
@@ -46829,13 +46761,13 @@
         <v>20</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>116</v>
@@ -46844,7 +46776,7 @@
         <v>161</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>120</v>
@@ -46862,16 +46794,16 @@
         <v>101</v>
       </c>
       <c r="CC195" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="CD195" s="1" t="s">
         <v>2593</v>
       </c>
-      <c r="CD195" s="1" t="s">
+      <c r="CE195" s="1" t="s">
         <v>2594</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
         <v>2595</v>
-      </c>
-      <c r="CG195" s="1" t="s">
-        <v>2596</v>
       </c>
       <c r="CH195" s="1" t="s">
         <v>128</v>
@@ -46912,13 +46844,13 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2597</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2598</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2599</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
@@ -46999,16 +46931,16 @@
         <v>20</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2601</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2602</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>116</v>
@@ -47020,13 +46952,13 @@
         <v>102</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="BS196" s="3">
         <v>37334</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>120</v>
@@ -47047,16 +46979,16 @@
         <v>522</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2605</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CG196" s="1" t="s">
         <v>2606</v>
       </c>
-      <c r="CG196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2607</v>
-      </c>
-      <c r="CH196" s="1" t="s">
-        <v>2608</v>
       </c>
       <c r="CI196" s="1" t="s">
         <v>128</v>
@@ -47094,13 +47026,13 @@
         <v>387</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2610</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2611</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -47181,16 +47113,16 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="BG197" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH197" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="BI197" s="1" t="s">
         <v>2613</v>
-      </c>
-      <c r="BI197" s="1" t="s">
-        <v>2614</v>
       </c>
       <c r="BM197" s="1" t="s">
         <v>116</v>
@@ -47202,13 +47134,13 @@
         <v>102</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="BS197" s="3">
         <v>37904</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>120</v>
@@ -47229,16 +47161,16 @@
         <v>973</v>
       </c>
       <c r="CD197" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="CE197" s="1" t="s">
         <v>2617</v>
       </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CG197" s="1" t="s">
         <v>2618</v>
       </c>
-      <c r="CG197" s="1" t="s">
+      <c r="CH197" s="1" t="s">
         <v>2619</v>
-      </c>
-      <c r="CH197" s="1" t="s">
-        <v>2620</v>
       </c>
       <c r="CI197" s="1" t="s">
         <v>128</v>
@@ -47258,7 +47190,7 @@
         <v>186</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>101</v>
@@ -47270,19 +47202,19 @@
         <v>94</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2620</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2621</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2622</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2623</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -47363,13 +47295,13 @@
         <v>20</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
       <c r="BM198" s="1" t="s">
         <v>116</v>
@@ -47381,13 +47313,13 @@
         <v>117</v>
       </c>
       <c r="BR198" s="1" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
       <c r="BS198" s="3">
         <v>36111</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>120</v>
@@ -47396,7 +47328,7 @@
         <v>0</v>
       </c>
       <c r="BZ198" s="1" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="CA198" s="1" t="s">
         <v>122</v>
@@ -47405,16 +47337,16 @@
         <v>101</v>
       </c>
       <c r="CC198" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="CD198" s="1" t="s">
         <v>1161</v>
       </c>
       <c r="CE198" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="CG198" s="1" t="s">
         <v>2629</v>
-      </c>
-      <c r="CG198" s="1" t="s">
-        <v>2630</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>128</v>
@@ -47455,13 +47387,13 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2631</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2632</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2633</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -47542,13 +47474,13 @@
         <v>20</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>1914</v>
@@ -47563,13 +47495,13 @@
         <v>117</v>
       </c>
       <c r="BR199" s="1" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
       <c r="BS199" s="3">
         <v>37785</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>120</v>
@@ -47587,16 +47519,16 @@
         <v>101</v>
       </c>
       <c r="CC199" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="CD199" s="1" t="s">
         <v>2638</v>
       </c>
-      <c r="CD199" s="1" t="s">
+      <c r="CE199" s="1" t="s">
         <v>2639</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2640</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2641</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>1921</v>
@@ -47613,10 +47545,10 @@
         <v>88</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>150</v>
@@ -47631,19 +47563,19 @@
         <v>94</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2643</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2645</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2646</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
@@ -47727,13 +47659,13 @@
         <v>20</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="BI200" s="1" t="s">
         <v>377</v>
@@ -47745,7 +47677,7 @@
         <v>105</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>120</v>
@@ -47754,7 +47686,7 @@
         <v>0</v>
       </c>
       <c r="BZ200" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="CA200" s="1" t="s">
         <v>122</v>
@@ -47766,13 +47698,13 @@
         <v>1281</v>
       </c>
       <c r="CD200" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="CE200" s="1" t="s">
         <v>2651</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CG200" s="1" t="s">
         <v>2652</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2653</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>384</v>
@@ -47813,13 +47745,13 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2656</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
@@ -47897,7 +47829,7 @@
         <v>101</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="BB201" s="1">
         <v>7</v>
@@ -47906,13 +47838,13 @@
         <v>20</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>1046</v>
@@ -47924,7 +47856,7 @@
         <v>105</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>120</v>
@@ -47942,16 +47874,16 @@
         <v>101</v>
       </c>
       <c r="CC201" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="CD201" s="1" t="s">
         <v>2661</v>
       </c>
-      <c r="CD201" s="1" t="s">
+      <c r="CE201" s="1" t="s">
         <v>2662</v>
       </c>
-      <c r="CE201" s="1" t="s">
+      <c r="CG201" s="1" t="s">
         <v>2663</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2664</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>1052</v>
@@ -47992,13 +47924,13 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2665</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2666</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2667</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
@@ -48076,7 +48008,7 @@
         <v>101</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="BB202" s="1">
         <v>7</v>
@@ -48085,13 +48017,13 @@
         <v>20</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>1871</v>
@@ -48103,7 +48035,7 @@
         <v>105</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>120</v>
@@ -48121,16 +48053,16 @@
         <v>101</v>
       </c>
       <c r="CC202" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="CD202" s="1" t="s">
         <v>1138</v>
       </c>
       <c r="CE202" s="1" t="s">
+        <v>2671</v>
+      </c>
+      <c r="CG202" s="1" t="s">
         <v>2672</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2673</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>1875</v>
@@ -48171,13 +48103,13 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2674</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2675</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2676</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
@@ -48255,7 +48187,7 @@
         <v>101</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="BB203" s="1">
         <v>7</v>
@@ -48264,13 +48196,13 @@
         <v>20</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
       <c r="BG203" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="BI203" s="1" t="s">
         <v>1046</v>
@@ -48282,7 +48214,7 @@
         <v>105</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>120</v>
@@ -48303,13 +48235,13 @@
         <v>1138</v>
       </c>
       <c r="CD203" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="CE203" s="1" t="s">
         <v>2680</v>
       </c>
-      <c r="CE203" s="1" t="s">
-        <v>2681</v>
-      </c>
       <c r="CG203" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>1052</v>
@@ -48350,13 +48282,13 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2681</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2682</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2683</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2684</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -48434,7 +48366,7 @@
         <v>101</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="BB204" s="1">
         <v>7</v>
@@ -48443,13 +48375,13 @@
         <v>20</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>1871</v>
@@ -48467,13 +48399,13 @@
         <v>161</v>
       </c>
       <c r="BR204" s="1" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
       <c r="BS204" s="3">
         <v>37513</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>120</v>
@@ -48491,16 +48423,16 @@
         <v>101</v>
       </c>
       <c r="CC204" s="1" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="CD204" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CE204" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="CG204" s="1" t="s">
         <v>2691</v>
-      </c>
-      <c r="CG204" s="1" t="s">
-        <v>2692</v>
       </c>
       <c r="CH204" s="1" t="s">
         <v>1875</v>
@@ -48541,13 +48473,13 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2694</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2695</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
@@ -48628,13 +48560,13 @@
         <v>20</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>2094</v>
@@ -48649,13 +48581,13 @@
         <v>102</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="BS205" s="3">
         <v>41024</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>120</v>
@@ -48673,16 +48605,16 @@
         <v>101</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2700</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2701</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2702</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2703</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>2100</v>
@@ -48723,13 +48655,13 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2704</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2705</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2706</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
@@ -48765,7 +48697,7 @@
         <v>106</v>
       </c>
       <c r="AG206" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="AH206" s="1" t="s">
         <v>1948</v>
@@ -48810,7 +48742,7 @@
         <v>101</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="BB206" s="1">
         <v>7</v>
@@ -48819,13 +48751,13 @@
         <v>20</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="BI206" s="1" t="s">
         <v>377</v>
@@ -48840,13 +48772,13 @@
         <v>117</v>
       </c>
       <c r="BR206" s="1" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="BS206" s="3">
         <v>34808</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>120</v>
@@ -48864,16 +48796,16 @@
         <v>101</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2712</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2713</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2714</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2715</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>384</v>
@@ -48914,13 +48846,13 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2717</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2718</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
@@ -48995,7 +48927,7 @@
         <v>101</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="BB207" s="1">
         <v>7</v>
@@ -49004,13 +48936,13 @@
         <v>20</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="BI207" s="1" t="s">
         <v>943</v>
@@ -49025,13 +48957,13 @@
         <v>102</v>
       </c>
       <c r="BR207" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="BS207" s="3">
         <v>37336</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>120</v>
@@ -49049,16 +48981,16 @@
         <v>101</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2725</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CG207" s="1" t="s">
         <v>2726</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2727</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>949</v>
@@ -49099,13 +49031,13 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2728</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2729</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2730</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
@@ -49183,7 +49115,7 @@
         <v>101</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="BB208" s="1">
         <v>7</v>
@@ -49192,16 +49124,16 @@
         <v>20</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="BG208" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH208" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="BI208" s="1" t="s">
         <v>2733</v>
-      </c>
-      <c r="BI208" s="1" t="s">
-        <v>2734</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>116</v>
@@ -49210,7 +49142,7 @@
         <v>105</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>120</v>
@@ -49228,19 +49160,19 @@
         <v>101</v>
       </c>
       <c r="CC208" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="CD208" s="1" t="s">
         <v>2736</v>
       </c>
-      <c r="CD208" s="1" t="s">
+      <c r="CE208" s="1" t="s">
         <v>2737</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CG208" s="1" t="s">
         <v>2738</v>
       </c>
-      <c r="CG208" s="1" t="s">
+      <c r="CH208" s="1" t="s">
         <v>2739</v>
-      </c>
-      <c r="CH208" s="1" t="s">
-        <v>2740</v>
       </c>
       <c r="CI208" s="1" t="s">
         <v>128</v>
@@ -49278,13 +49210,13 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2741</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2742</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2743</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
@@ -49371,13 +49303,13 @@
         <v>20</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="BG209" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>116</v>
@@ -49386,7 +49318,7 @@
         <v>105</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>120</v>
@@ -49404,16 +49336,16 @@
         <v>101</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2747</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2748</v>
       </c>
-      <c r="CE209" s="1" t="s">
+      <c r="CG209" s="1" t="s">
         <v>2749</v>
-      </c>
-      <c r="CG209" s="1" t="s">
-        <v>2750</v>
       </c>
       <c r="CH209" s="1" t="s">
         <v>128</v>
@@ -49454,13 +49386,13 @@
         <v>2185</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2752</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2753</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>100</v>
@@ -49495,12 +49427,7 @@
       <c r="AA210" s="1">
         <v>0</v>
       </c>
-      <c r="AC210" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2754</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>106</v>
       </c>
@@ -49550,7 +49477,7 @@
         <v>101</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="BB210" s="1">
         <v>7</v>
@@ -49559,16 +49486,16 @@
         <v>20</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="BG210" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="BI210" s="1" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>116</v>
@@ -49577,7 +49504,7 @@
         <v>105</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>120</v>
@@ -49589,7 +49516,7 @@
         <v>110</v>
       </c>
       <c r="BZ210" s="1" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="CA210" s="1" t="s">
         <v>122</v>
@@ -49601,16 +49528,16 @@
         <v>1185</v>
       </c>
       <c r="CD210" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="CE210" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="CG210" s="1" t="s">
         <v>2761</v>
       </c>
-      <c r="CE210" s="1" t="s">
+      <c r="CH210" s="1" t="s">
         <v>2762</v>
-      </c>
-      <c r="CG210" s="1" t="s">
-        <v>2763</v>
-      </c>
-      <c r="CH210" s="1" t="s">
-        <v>2764</v>
       </c>
       <c r="CI210" s="1" t="s">
         <v>128</v>
@@ -49648,10 +49575,10 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>110</v>
@@ -49675,7 +49602,7 @@
         <v>106</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>373</v>
@@ -49729,10 +49656,10 @@
         <v>101</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="212" spans="1:87" x14ac:dyDescent="0.25">
@@ -49743,13 +49670,13 @@
         <v>88</v>
       </c>
       <c r="C212" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>2444</v>
-      </c>
       <c r="E212" s="1" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>101</v>
@@ -49761,16 +49688,16 @@
         <v>94</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>110</v>
@@ -49794,7 +49721,7 @@
         <v>106</v>
       </c>
       <c r="AG212" s="1" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="AH212" s="1" t="s">
         <v>373</v>
@@ -49839,7 +49766,7 @@
         <v>0</v>
       </c>
       <c r="BZ212" s="1" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="CA212" s="1" t="s">
         <v>122</v>
@@ -49848,10 +49775,10 @@
         <v>101</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="213" spans="1:87" x14ac:dyDescent="0.25">
@@ -49886,10 +49813,10 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>110</v>
@@ -49913,7 +49840,7 @@
         <v>106</v>
       </c>
       <c r="AG213" s="1" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="AH213" s="1" t="s">
         <v>373</v>
@@ -49967,10 +49894,10 @@
         <v>101</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="214" spans="1:87" x14ac:dyDescent="0.25">
@@ -49987,7 +49914,7 @@
         <v>90</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>92</v>
@@ -49999,16 +49926,16 @@
         <v>94</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>110</v>
@@ -50077,7 +50004,7 @@
         <v>0</v>
       </c>
       <c r="BZ214" s="1" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="CA214" s="1" t="s">
         <v>122</v>
@@ -50086,10 +50013,10 @@
         <v>101</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="215" spans="1:87" x14ac:dyDescent="0.25">
@@ -50124,10 +50051,10 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>110</v>
@@ -50205,10 +50132,10 @@
         <v>101</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="CE215" s="1" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="216" spans="1:87" x14ac:dyDescent="0.25">
@@ -50225,7 +50152,7 @@
         <v>90</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>92</v>
@@ -50237,16 +50164,16 @@
         <v>94</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>110</v>
@@ -50315,7 +50242,7 @@
         <v>0</v>
       </c>
       <c r="BZ216" s="1" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="CA216" s="1" t="s">
         <v>122</v>
@@ -50324,10 +50251,10 @@
         <v>101</v>
       </c>
       <c r="CC216" s="1" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="CE216" s="1" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="217" spans="1:87" x14ac:dyDescent="0.25">
@@ -50362,10 +50289,10 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>110</v>
@@ -50443,10 +50370,10 @@
         <v>101</v>
       </c>
       <c r="CC217" s="1" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="CE217" s="1" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="218" spans="1:87" x14ac:dyDescent="0.25">
@@ -50481,13 +50408,13 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2787</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2788</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2789</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
@@ -50516,12 +50443,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2754</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>106</v>
       </c>
@@ -50574,13 +50496,13 @@
         <v>20</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>377</v>
@@ -50595,13 +50517,13 @@
         <v>102</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="BS218" s="3">
         <v>36306</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>120</v>
@@ -50619,16 +50541,16 @@
         <v>101</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="CD218" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="CE218" s="1" t="s">
         <v>2794</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CG218" s="1" t="s">
         <v>2795</v>
-      </c>
-      <c r="CE218" s="1" t="s">
-        <v>2796</v>
-      </c>
-      <c r="CG218" s="1" t="s">
-        <v>2797</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>384</v>
@@ -50669,13 +50591,13 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2798</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2799</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2800</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
@@ -50704,12 +50626,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2754</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>106</v>
       </c>
@@ -50765,13 +50682,13 @@
         <v>20</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>1046</v>
@@ -50783,7 +50700,7 @@
         <v>105</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>120</v>
@@ -50801,16 +50718,16 @@
         <v>101</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="CG219" s="1" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>1052</v>
@@ -50851,13 +50768,13 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2807</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2808</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2809</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
@@ -50889,12 +50806,7 @@
       <c r="AB220" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2754</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>106</v>
       </c>
@@ -50947,13 +50859,13 @@
         <v>20</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>377</v>
@@ -50968,13 +50880,13 @@
         <v>102</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="BS220" s="3">
         <v>38234</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>120</v>
@@ -50992,16 +50904,16 @@
         <v>101</v>
       </c>
       <c r="CC220" s="1" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="CD220" s="1" t="s">
         <v>1025</v>
       </c>
       <c r="CE220" s="1" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="CG220" s="1" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>384</v>
@@ -51042,13 +50954,13 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2815</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2816</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2817</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2818</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2819</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
@@ -51077,12 +50989,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2754</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>106</v>
       </c>
@@ -51138,13 +51045,13 @@
         <v>20</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="BI221" s="1" t="s">
         <v>943</v>
@@ -51156,7 +51063,7 @@
         <v>105</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>120</v>
@@ -51174,16 +51081,16 @@
         <v>101</v>
       </c>
       <c r="CC221" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="CD221" s="1" t="s">
+        <v>2822</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2823</v>
       </c>
-      <c r="CD221" s="1" t="s">
+      <c r="CG221" s="1" t="s">
         <v>2824</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2825</v>
-      </c>
-      <c r="CG221" s="1" t="s">
-        <v>2826</v>
       </c>
       <c r="CH221" s="1" t="s">
         <v>949</v>
@@ -51224,13 +51131,13 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="N222" s="1" t="s">
         <v>2827</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>2828</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2829</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
@@ -51259,12 +51166,7 @@
       <c r="AA222" s="1">
         <v>0</v>
       </c>
-      <c r="AC222" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD222" s="1" t="s">
-        <v>2754</v>
-      </c>
+      <c r="AC222" s="3"/>
       <c r="AF222" s="1" t="s">
         <v>106</v>
       </c>
@@ -51317,16 +51219,16 @@
         <v>20</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="BI222" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>116</v>
@@ -51338,13 +51240,13 @@
         <v>228</v>
       </c>
       <c r="BR222" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="BS222" s="3">
         <v>37069</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>120</v>
@@ -51365,16 +51267,16 @@
         <v>770</v>
       </c>
       <c r="CD222" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="CE222" s="1" t="s">
+        <v>2834</v>
+      </c>
+      <c r="CG222" s="1" t="s">
         <v>2835</v>
       </c>
-      <c r="CE222" s="1" t="s">
+      <c r="CH222" s="1" t="s">
         <v>2836</v>
-      </c>
-      <c r="CG222" s="1" t="s">
-        <v>2837</v>
-      </c>
-      <c r="CH222" s="1" t="s">
-        <v>2838</v>
       </c>
       <c r="CI222" s="1" t="s">
         <v>128</v>
@@ -51412,13 +51314,13 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>2838</v>
+      </c>
+      <c r="N223" s="1" t="s">
         <v>2839</v>
-      </c>
-      <c r="L223" s="1" t="s">
-        <v>2840</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2841</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
@@ -51447,12 +51349,7 @@
       <c r="AA223" s="1">
         <v>0</v>
       </c>
-      <c r="AC223" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD223" s="1" t="s">
-        <v>2754</v>
-      </c>
+      <c r="AC223" s="3"/>
       <c r="AF223" s="1" t="s">
         <v>106</v>
       </c>
@@ -51508,13 +51405,13 @@
         <v>20</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="BI223" s="1" t="s">
         <v>943</v>
@@ -51526,7 +51423,7 @@
         <v>105</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>120</v>
@@ -51544,16 +51441,16 @@
         <v>101</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="CD223" s="1" t="s">
+        <v>2844</v>
+      </c>
+      <c r="CE223" s="1" t="s">
         <v>2845</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CG223" s="1" t="s">
         <v>2846</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2847</v>
-      </c>
-      <c r="CG223" s="1" t="s">
-        <v>2848</v>
       </c>
       <c r="CH223" s="1" t="s">
         <v>949</v>
@@ -51594,13 +51491,13 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>2848</v>
+      </c>
+      <c r="N224" s="1" t="s">
         <v>2849</v>
-      </c>
-      <c r="L224" s="1" t="s">
-        <v>2850</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2851</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
@@ -51629,12 +51526,7 @@
       <c r="AA224" s="1">
         <v>0</v>
       </c>
-      <c r="AC224" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD224" s="1" t="s">
-        <v>2852</v>
-      </c>
+      <c r="AC224" s="3"/>
       <c r="AF224" s="1" t="s">
         <v>106</v>
       </c>
@@ -51681,7 +51573,7 @@
         <v>101</v>
       </c>
       <c r="AZ224" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="BB224" s="1">
         <v>7</v>
@@ -51690,16 +51582,16 @@
         <v>20</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="BI224" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="BJ224" s="1" t="s">
         <v>675</v>
@@ -51714,13 +51606,13 @@
         <v>228</v>
       </c>
       <c r="BR224" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="BS224" s="3">
         <v>35125</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>120</v>
@@ -51738,19 +51630,19 @@
         <v>101</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="CD224" s="1" t="s">
         <v>123</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="CG224" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="CI224" s="1" t="s">
         <v>681</v>
@@ -51788,13 +51680,13 @@
         <v>387</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
@@ -51878,7 +51770,7 @@
         <v>20</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>113</v>
@@ -51887,7 +51779,7 @@
         <v>116</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>120</v>
@@ -51905,13 +51797,13 @@
         <v>92</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="CD225" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="CG225" s="1" t="s">
         <v>128</v>
@@ -51955,13 +51847,13 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>100</v>
@@ -52045,7 +51937,7 @@
         <v>20</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="BG226" s="1" t="s">
         <v>113</v>
@@ -52054,7 +51946,7 @@
         <v>116</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>120</v>
@@ -52075,10 +51967,10 @@
         <v>561</v>
       </c>
       <c r="CD226" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="CG226" s="1" t="s">
         <v>128</v>
@@ -52122,13 +52014,13 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>100</v>
@@ -52215,13 +52107,13 @@
         <v>20</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="BG227" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>116</v>
@@ -52242,16 +52134,16 @@
         <v>101</v>
       </c>
       <c r="CC227" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="CD227" s="1" t="s">
+        <v>2881</v>
+      </c>
+      <c r="CE227" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="CG227" s="1" t="s">
         <v>2883</v>
-      </c>
-      <c r="CD227" s="1" t="s">
-        <v>2884</v>
-      </c>
-      <c r="CE227" s="1" t="s">
-        <v>2885</v>
-      </c>
-      <c r="CG227" s="1" t="s">
-        <v>2886</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>128</v>
@@ -52295,10 +52187,10 @@
         <v>253</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="N228" s="1" t="s">
         <v>255</v>
@@ -52328,7 +52220,7 @@
         <v>42582</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>106</v>
@@ -52385,13 +52277,13 @@
         <v>0</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="BI228" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>116</v>
@@ -52436,10 +52328,10 @@
         <v>265</v>
       </c>
       <c r="CG228" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="CH228" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>128</v>
@@ -52459,7 +52351,7 @@
         <v>186</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>92</v>
@@ -52471,22 +52363,22 @@
         <v>94</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="Q229" s="3">
         <v>17060</v>
@@ -52519,13 +52411,13 @@
         <v>42628</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG229" s="1" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="AH229" s="1" t="s">
         <v>136</v>
@@ -52570,22 +52462,22 @@
         <v>101</v>
       </c>
       <c r="AZ229" s="1" t="s">
+        <v>2899</v>
+      </c>
+      <c r="BB229" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC229" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD229" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="BH229" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="BI229" s="1" t="s">
         <v>2902</v>
-      </c>
-      <c r="BB229" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC229" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD229" s="1" t="s">
-        <v>2903</v>
-      </c>
-      <c r="BH229" s="1" t="s">
-        <v>2904</v>
-      </c>
-      <c r="BI229" s="1" t="s">
-        <v>2905</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>116</v>
@@ -52594,7 +52486,7 @@
         <v>105</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>120</v>
@@ -52603,7 +52495,7 @@
         <v>0</v>
       </c>
       <c r="BZ229" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="CA229" s="1" t="s">
         <v>122</v>
@@ -52618,13 +52510,13 @@
         <v>124</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="CG229" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="CH229" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>128</v>
@@ -52638,13 +52530,13 @@
         <v>88</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>101</v>
@@ -52656,22 +52548,22 @@
         <v>94</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="Q230" s="3">
         <v>26864</v>
@@ -52701,7 +52593,7 @@
         <v>42735</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>106</v>
@@ -52755,10 +52647,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>116</v>
@@ -52770,13 +52662,13 @@
         <v>228</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="BS230" s="3">
         <v>102</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>120</v>
@@ -52788,7 +52680,7 @@
         <v>110</v>
       </c>
       <c r="BZ230" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="CA230" s="1" t="s">
         <v>122</v>
@@ -52797,16 +52689,16 @@
         <v>101</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="CD230" s="1" t="s">
+        <v>2921</v>
+      </c>
+      <c r="CE230" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="CG230" s="1" t="s">
         <v>2923</v>
-      </c>
-      <c r="CD230" s="1" t="s">
-        <v>2924</v>
-      </c>
-      <c r="CE230" s="1" t="s">
-        <v>2925</v>
-      </c>
-      <c r="CG230" s="1" t="s">
-        <v>2926</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>128</v>
@@ -52847,16 +52739,16 @@
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="Q231" s="3">
         <v>25379</v>
@@ -52886,7 +52778,7 @@
         <v>39800</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>239</v>
@@ -52940,10 +52832,10 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>116</v>
@@ -52955,13 +52847,13 @@
         <v>1669</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="BS231" s="3">
         <v>35915</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>120</v>
@@ -52991,10 +52883,10 @@
         <v>438</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="CG231" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>128</v>
@@ -53017,7 +52909,7 @@
         <v>90</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>101</v>
@@ -53029,22 +52921,22 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="Q232" s="3">
         <v>17470</v>
@@ -53074,7 +52966,7 @@
         <v>43100</v>
       </c>
       <c r="AD232" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="AF232" s="1" t="s">
         <v>106</v>
@@ -53131,10 +53023,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>116</v>
@@ -53143,7 +53035,7 @@
         <v>105</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>120</v>
@@ -53167,16 +53059,16 @@
         <v>101</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="CG232" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>128</v>
@@ -53199,7 +53091,7 @@
         <v>90</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>101</v>
@@ -53211,22 +53103,22 @@
         <v>94</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="Q233" s="3">
         <v>23356</v>
@@ -53253,7 +53145,7 @@
         <v>43105</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>106</v>
@@ -53307,10 +53199,10 @@
         <v>0</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>116</v>
@@ -53322,13 +53214,13 @@
         <v>102</v>
       </c>
       <c r="BR233" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="BS233" s="3">
         <v>34412</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>120</v>
@@ -53337,7 +53229,7 @@
         <v>0</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>122</v>
@@ -53346,16 +53238,16 @@
         <v>101</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="CD233" s="1" t="s">
         <v>2324</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="CG233" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="CH233" s="1" t="s">
         <v>128</v>
@@ -53372,13 +53264,13 @@
         <v>88</v>
       </c>
       <c r="C234" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D234" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>2444</v>
-      </c>
       <c r="E234" s="1" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>92</v>
@@ -53390,22 +53282,22 @@
         <v>94</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="Q234" s="3">
         <v>17726</v>
@@ -53438,7 +53330,7 @@
         <v>43312</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>239</v>
@@ -53489,7 +53381,7 @@
         <v>101</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="BB234" s="1">
         <v>0</v>
@@ -53498,10 +53390,10 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>116</v>
@@ -53510,7 +53402,7 @@
         <v>105</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>120</v>
@@ -53519,7 +53411,7 @@
         <v>0</v>
       </c>
       <c r="BZ234" s="1" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="CA234" s="1" t="s">
         <v>122</v>
@@ -53528,16 +53420,16 @@
         <v>101</v>
       </c>
       <c r="CC234" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="CD234" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="CE234" s="1" t="s">
         <v>906</v>
       </c>
       <c r="CG234" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>128</v>
@@ -53560,7 +53452,7 @@
         <v>90</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>92</v>
@@ -53572,22 +53464,22 @@
         <v>94</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="Q235" s="3">
         <v>17041</v>
@@ -53614,7 +53506,7 @@
         <v>42735</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>106</v>
@@ -53671,10 +53563,10 @@
         <v>0</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>116</v>
@@ -53683,7 +53575,7 @@
         <v>105</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>120</v>
@@ -53695,7 +53587,7 @@
         <v>110</v>
       </c>
       <c r="BZ235" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="CA235" s="1" t="s">
         <v>122</v>
@@ -53704,16 +53596,16 @@
         <v>101</v>
       </c>
       <c r="CC235" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="CD235" s="1" t="s">
+        <v>2974</v>
+      </c>
+      <c r="CE235" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="CG235" s="1" t="s">
         <v>2976</v>
-      </c>
-      <c r="CD235" s="1" t="s">
-        <v>2977</v>
-      </c>
-      <c r="CE235" s="1" t="s">
-        <v>2978</v>
-      </c>
-      <c r="CG235" s="1" t="s">
-        <v>2979</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>128</v>
@@ -53730,13 +53622,13 @@
         <v>88</v>
       </c>
       <c r="C236" s="1" t="s">
+        <v>2442</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>2443</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>2444</v>
-      </c>
       <c r="E236" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>101</v>
@@ -53748,22 +53640,22 @@
         <v>94</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="Q236" s="3">
         <v>30147</v>
@@ -53786,17 +53678,12 @@
       <c r="AA236" s="1">
         <v>0</v>
       </c>
-      <c r="AC236" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD236" s="1" t="s">
-        <v>2754</v>
-      </c>
+      <c r="AC236" s="3"/>
       <c r="AF236" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG236" s="1" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="AH236" s="1" t="s">
         <v>373</v>
@@ -53844,10 +53731,10 @@
         <v>0</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>116</v>
@@ -53859,13 +53746,13 @@
         <v>102</v>
       </c>
       <c r="BR236" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="BS236" s="3">
         <v>37124</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>120</v>
@@ -53874,7 +53761,7 @@
         <v>0</v>
       </c>
       <c r="BZ236" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="CA236" s="1" t="s">
         <v>122</v>
@@ -53883,16 +53770,16 @@
         <v>101</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="CD236" s="1" t="s">
         <v>1161</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="CG236" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="CH236" s="1" t="s">
         <v>128</v>
@@ -53933,16 +53820,16 @@
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="Q237" s="3">
         <v>17821</v>
@@ -53978,13 +53865,13 @@
         <v>43388</v>
       </c>
       <c r="AD237" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="AF237" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG237" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="AH237" s="1" t="s">
         <v>1258</v>
@@ -54029,7 +53916,7 @@
         <v>101</v>
       </c>
       <c r="AZ237" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="BB237" s="1">
         <v>0</v>
@@ -54038,10 +53925,10 @@
         <v>0</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>116</v>
@@ -54050,7 +53937,7 @@
         <v>105</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>120</v>
@@ -54068,16 +53955,16 @@
         <v>101</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="CD237" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="CE237" s="1" t="s">
         <v>509</v>
       </c>
       <c r="CG237" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="CH237" s="1" t="s">
         <v>128</v>
@@ -54091,10 +53978,10 @@
         <v>87</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1256</v>
@@ -54109,7 +53996,7 @@
         <v>93</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1256</v>
@@ -54118,13 +54005,13 @@
         <v>150</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
@@ -54178,7 +54065,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -54211,19 +54098,19 @@
         <v>20</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="BG238" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>120</v>
@@ -54241,16 +54128,16 @@
         <v>101</v>
       </c>
       <c r="CC238" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="CD238" s="1" t="s">
         <v>306</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="CG238" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>128</v>
@@ -54264,10 +54151,10 @@
         <v>87</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1256</v>
@@ -54282,7 +54169,7 @@
         <v>93</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1256</v>
@@ -54291,13 +54178,13 @@
         <v>150</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
@@ -54348,7 +54235,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="AO239" s="1">
         <v>0</v>
@@ -54384,19 +54271,19 @@
         <v>20</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="BG239" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>120</v>
@@ -54423,10 +54310,10 @@
         <v>1086</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="CG239" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>128</v>
@@ -54440,10 +54327,10 @@
         <v>87</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1256</v>
@@ -54458,7 +54345,7 @@
         <v>93</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1256</v>
@@ -54467,13 +54354,13 @@
         <v>150</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
@@ -54524,7 +54411,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="AO240" s="1">
         <v>0</v>
@@ -54560,19 +54447,19 @@
         <v>20</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="BG240" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>120</v>
@@ -54593,16 +54480,16 @@
         <v>101</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="CD240" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="CE240" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="CG240" s="1" t="s">
         <v>3032</v>
-      </c>
-      <c r="CD240" s="1" t="s">
-        <v>3033</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>3034</v>
-      </c>
-      <c r="CG240" s="1" t="s">
-        <v>3035</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>128</v>
@@ -54616,10 +54503,10 @@
         <v>87</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1256</v>
@@ -54634,7 +54521,7 @@
         <v>93</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1256</v>
@@ -54643,13 +54530,13 @@
         <v>150</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
@@ -54736,19 +54623,19 @@
         <v>20</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="BG241" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>120</v>
@@ -54769,7 +54656,7 @@
         <v>101</v>
       </c>
       <c r="CC241" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="CD241" s="1" t="s">
         <v>603</v>
@@ -54778,7 +54665,7 @@
         <v>509</v>
       </c>
       <c r="CG241" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>128</v>
@@ -54792,10 +54679,10 @@
         <v>87</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1256</v>
@@ -54810,7 +54697,7 @@
         <v>93</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1256</v>
@@ -54819,13 +54706,13 @@
         <v>150</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
@@ -54879,7 +54766,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="AO242" s="1">
         <v>0</v>
@@ -54915,19 +54802,19 @@
         <v>20</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="BG242" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>120</v>
@@ -54951,13 +54838,13 @@
         <v>493</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="CG242" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>128</v>
@@ -54971,10 +54858,10 @@
         <v>87</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1256</v>
@@ -54989,7 +54876,7 @@
         <v>93</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1256</v>
@@ -54998,13 +54885,13 @@
         <v>150</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
@@ -55091,19 +54978,19 @@
         <v>20</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="BG243" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>120</v>
@@ -55124,16 +55011,16 @@
         <v>101</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>617</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>128</v>
@@ -55147,10 +55034,10 @@
         <v>87</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1256</v>
@@ -55165,7 +55052,7 @@
         <v>93</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1256</v>
@@ -55174,13 +55061,13 @@
         <v>150</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -55216,7 +55103,7 @@
         <v>106</v>
       </c>
       <c r="AG244" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="AH244" s="1" t="s">
         <v>1258</v>
@@ -55234,7 +55121,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -55270,19 +55157,19 @@
         <v>20</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="BG244" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>120</v>
@@ -55303,16 +55190,16 @@
         <v>101</v>
       </c>
       <c r="CC244" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="CD244" s="1" t="s">
         <v>1013</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>128</v>
@@ -55326,10 +55213,10 @@
         <v>87</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1256</v>
@@ -55344,7 +55231,7 @@
         <v>93</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1256</v>
@@ -55353,13 +55240,13 @@
         <v>150</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -55413,7 +55300,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -55449,19 +55336,19 @@
         <v>20</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="BG245" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>120</v>
@@ -55485,13 +55372,13 @@
         <v>999</v>
       </c>
       <c r="CD245" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>128</v>
@@ -55505,10 +55392,10 @@
         <v>87</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1256</v>
@@ -55523,7 +55410,7 @@
         <v>93</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1256</v>
@@ -55532,13 +55419,13 @@
         <v>150</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -55592,7 +55479,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="AO246" s="1">
         <v>0</v>
@@ -55628,19 +55515,19 @@
         <v>20</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>120</v>
@@ -55667,10 +55554,10 @@
         <v>2150</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="CG246" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>128</v>
@@ -55684,10 +55571,10 @@
         <v>87</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1256</v>
@@ -55702,7 +55589,7 @@
         <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1256</v>
@@ -55711,13 +55598,13 @@
         <v>150</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="L247" s="1" t="s">
         <v>2266</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
@@ -55753,7 +55640,7 @@
         <v>106</v>
       </c>
       <c r="AG247" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="AH247" s="1" t="s">
         <v>1258</v>
@@ -55768,7 +55655,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="AO247" s="1">
         <v>0</v>
@@ -55801,19 +55688,19 @@
         <v>20</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>120</v>
@@ -55831,16 +55718,16 @@
         <v>101</v>
       </c>
       <c r="CC247" s="1" t="s">
+        <v>3092</v>
+      </c>
+      <c r="CD247" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="CE247" s="1" t="s">
+        <v>3094</v>
+      </c>
+      <c r="CG247" s="1" t="s">
         <v>3095</v>
-      </c>
-      <c r="CD247" s="1" t="s">
-        <v>3096</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>3097</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>3098</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>128</v>
@@ -55854,10 +55741,10 @@
         <v>87</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1256</v>
@@ -55872,7 +55759,7 @@
         <v>93</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1256</v>
@@ -55881,19 +55768,19 @@
         <v>150</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="L248" s="1" t="s">
         <v>2274</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P248" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="Q248" s="3">
         <v>16452</v>
@@ -55971,19 +55858,19 @@
         <v>20</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="BG248" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>120</v>
@@ -56004,16 +55891,16 @@
         <v>2201</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="CD248" s="1" t="s">
+        <v>3103</v>
+      </c>
+      <c r="CE248" s="1" t="s">
+        <v>3104</v>
+      </c>
+      <c r="CG248" s="1" t="s">
         <v>3105</v>
-      </c>
-      <c r="CD248" s="1" t="s">
-        <v>3106</v>
-      </c>
-      <c r="CE248" s="1" t="s">
-        <v>3107</v>
-      </c>
-      <c r="CG248" s="1" t="s">
-        <v>3108</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>128</v>
@@ -56027,10 +55914,10 @@
         <v>87</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1256</v>
@@ -56045,7 +55932,7 @@
         <v>93</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1256</v>
@@ -56054,13 +55941,13 @@
         <v>150</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
@@ -56144,19 +56031,19 @@
         <v>20</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="BG249" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>120</v>
@@ -56177,13 +56064,13 @@
         <v>1199</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>128</v>
@@ -56197,10 +56084,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1256</v>
@@ -56215,7 +56102,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1256</v>
@@ -56224,13 +56111,13 @@
         <v>150</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
@@ -56281,7 +56168,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="AO250" s="1">
         <v>0</v>
@@ -56317,19 +56204,19 @@
         <v>20</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>120</v>
@@ -56350,16 +56237,16 @@
         <v>101</v>
       </c>
       <c r="CC250" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="CG250" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>128</v>
@@ -56373,10 +56260,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1256</v>
@@ -56391,7 +56278,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1256</v>
@@ -56400,13 +56287,13 @@
         <v>150</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
@@ -56460,7 +56347,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -56496,19 +56383,19 @@
         <v>20</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>120</v>
@@ -56529,16 +56416,16 @@
         <v>101</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>3131</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>3132</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3133</v>
+      </c>
+      <c r="CG251" s="1" t="s">
         <v>3134</v>
-      </c>
-      <c r="CD251" s="1" t="s">
-        <v>3135</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>3136</v>
-      </c>
-      <c r="CG251" s="1" t="s">
-        <v>3137</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>128</v>
@@ -56552,10 +56439,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1256</v>
@@ -56570,7 +56457,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1256</v>
@@ -56579,13 +56466,13 @@
         <v>150</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
@@ -56639,7 +56526,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -56675,19 +56562,19 @@
         <v>20</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>120</v>
@@ -56708,16 +56595,16 @@
         <v>101</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="CD252" s="1" t="s">
+        <v>3142</v>
+      </c>
+      <c r="CE252" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="CG252" s="1" t="s">
         <v>3144</v>
-      </c>
-      <c r="CD252" s="1" t="s">
-        <v>3145</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>3146</v>
-      </c>
-      <c r="CG252" s="1" t="s">
-        <v>3147</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>128</v>
@@ -56731,10 +56618,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1256</v>
@@ -56749,7 +56636,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1256</v>
@@ -56758,13 +56645,13 @@
         <v>150</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
@@ -56851,19 +56738,19 @@
         <v>20</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>120</v>
@@ -56884,16 +56771,16 @@
         <v>101</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="CE253" s="1" t="s">
         <v>217</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>128</v>
@@ -56907,10 +56794,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1256</v>
@@ -56925,7 +56812,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1256</v>
@@ -56934,13 +56821,13 @@
         <v>150</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
@@ -56994,7 +56881,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="AO254" s="1">
         <v>0</v>
@@ -57030,25 +56917,25 @@
         <v>20</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>120</v>
       </c>
       <c r="BW254" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="BX254" s="1">
         <v>0</v>
@@ -57066,16 +56953,16 @@
         <v>101</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="CD254" s="1" t="s">
         <v>1265</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>128</v>
@@ -57089,10 +56976,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1256</v>
@@ -57107,7 +56994,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1256</v>
@@ -57116,13 +57003,13 @@
         <v>150</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
@@ -57173,7 +57060,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="AO255" s="1">
         <v>0</v>
@@ -57209,19 +57096,19 @@
         <v>20</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>120</v>
@@ -57242,16 +57129,16 @@
         <v>101</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="CD255" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>128</v>
@@ -57265,10 +57152,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1256</v>
@@ -57283,7 +57170,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1256</v>
@@ -57292,13 +57179,13 @@
         <v>150</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
@@ -57325,7 +57212,7 @@
         <v>0</v>
       </c>
       <c r="AG256" s="1" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="AH256" s="1" t="s">
         <v>373</v>
@@ -57340,7 +57227,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -57370,19 +57257,19 @@
         <v>20</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>120</v>
@@ -57400,16 +57287,16 @@
         <v>101</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="CD256" s="1" t="s">
         <v>306</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="CG256" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>128</v>
@@ -57423,10 +57310,10 @@
         <v>87</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1256</v>
@@ -57441,7 +57328,7 @@
         <v>93</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>1256</v>
@@ -57450,13 +57337,13 @@
         <v>150</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
@@ -57540,19 +57427,19 @@
         <v>20</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>120</v>
@@ -57570,16 +57457,16 @@
         <v>101</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="CD257" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="CG257" s="1" t="s">
         <v>3192</v>
-      </c>
-      <c r="CD257" s="1" t="s">
-        <v>3193</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3194</v>
-      </c>
-      <c r="CG257" s="1" t="s">
-        <v>3195</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>128</v>
@@ -57593,10 +57480,10 @@
         <v>87</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1256</v>
@@ -57611,7 +57498,7 @@
         <v>93</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1256</v>
@@ -57620,13 +57507,13 @@
         <v>150</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
@@ -57713,19 +57600,19 @@
         <v>20</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>120</v>
@@ -57743,16 +57630,16 @@
         <v>101</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>3199</v>
+      </c>
+      <c r="CD258" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>3201</v>
+      </c>
+      <c r="CG258" s="1" t="s">
         <v>3202</v>
-      </c>
-      <c r="CD258" s="1" t="s">
-        <v>3203</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>3204</v>
-      </c>
-      <c r="CG258" s="1" t="s">
-        <v>3205</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>128</v>
@@ -57766,10 +57653,10 @@
         <v>87</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>1256</v>
@@ -57784,7 +57671,7 @@
         <v>93</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>1256</v>
@@ -57793,13 +57680,13 @@
         <v>150</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
@@ -57808,7 +57695,7 @@
         <v>101</v>
       </c>
       <c r="Q259" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="R259" s="1" t="s">
         <v>134</v>
@@ -57850,7 +57737,7 @@
         <v>0</v>
       </c>
       <c r="AN259" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="AO259" s="1">
         <v>0</v>
@@ -57883,19 +57770,19 @@
         <v>20</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="BG259" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>120</v>
@@ -57913,16 +57800,16 @@
         <v>101</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>3210</v>
+      </c>
+      <c r="CD259" s="1" t="s">
+        <v>3211</v>
+      </c>
+      <c r="CE259" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="CG259" s="1" t="s">
         <v>3213</v>
-      </c>
-      <c r="CD259" s="1" t="s">
-        <v>3214</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>3215</v>
-      </c>
-      <c r="CG259" s="1" t="s">
-        <v>3216</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>128</v>
@@ -57963,16 +57850,16 @@
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>100</v>
@@ -58005,7 +57892,7 @@
         <v>43980</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>106</v>
@@ -58062,7 +57949,7 @@
         <v>1864</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>116</v>
@@ -58074,13 +57961,13 @@
         <v>1669</v>
       </c>
       <c r="BR260" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="BS260" s="3">
         <v>35915</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>120</v>
@@ -58104,7 +57991,7 @@
         <v>438</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="CG260" s="1" t="s">
         <v>1865</v>
@@ -58148,16 +58035,16 @@
         <v>96</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>100</v>
@@ -58190,7 +58077,7 @@
         <v>44008</v>
       </c>
       <c r="AD261" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="AF261" s="1" t="s">
         <v>106</v>
@@ -58247,10 +58134,10 @@
         <v>20</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>116</v>
@@ -58259,7 +58146,7 @@
         <v>105</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>120</v>
@@ -58283,10 +58170,10 @@
         <v>335</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="CG261" s="1" t="s">
         <v>803</v>
@@ -58330,16 +58217,16 @@
         <v>96</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="M262" s="1" t="s">
         <v>110</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>100</v>
@@ -58375,7 +58262,7 @@
         <v>106</v>
       </c>
       <c r="AG262" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="AH262" s="1" t="s">
         <v>60</v>
@@ -58426,13 +58313,13 @@
         <v>20</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>116</v>
@@ -58441,7 +58328,7 @@
         <v>105</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>120</v>
@@ -58462,13 +58349,13 @@
         <v>335</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="CG262" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>128</v>
@@ -58620,7 +58507,7 @@
         <v>20</v>
       </c>
       <c r="BD263" s="4" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="BE263" s="4"/>
       <c r="BF263" s="4"/>
@@ -58628,7 +58515,7 @@
         <v>113</v>
       </c>
       <c r="BH263" s="4" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="BI263" s="4"/>
       <c r="BJ263" s="4"/>
@@ -58685,7 +58572,7 @@
       </c>
       <c r="CF263" s="4"/>
       <c r="CG263" s="4" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="CH263" s="4" t="s">
         <v>128</v>
@@ -58839,7 +58726,7 @@
         <v>20</v>
       </c>
       <c r="BD264" s="4" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="BE264" s="4"/>
       <c r="BF264" s="4"/>
@@ -58847,7 +58734,7 @@
         <v>113</v>
       </c>
       <c r="BH264" s="4" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="BI264" s="4"/>
       <c r="BJ264" s="4"/>
@@ -58904,7 +58791,7 @@
       </c>
       <c r="CF264" s="4"/>
       <c r="CG264" s="4" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="CH264" s="4" t="s">
         <v>128</v>
@@ -59057,7 +58944,7 @@
         <v>20</v>
       </c>
       <c r="BD265" s="4" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="BE265" s="4"/>
       <c r="BF265" s="4"/>
@@ -59065,7 +58952,7 @@
         <v>113</v>
       </c>
       <c r="BH265" s="4" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="BI265" s="4"/>
       <c r="BJ265" s="4"/>
@@ -59115,7 +59002,7 @@
       </c>
       <c r="CF265" s="4"/>
       <c r="CG265" s="4" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="CH265" s="4" t="s">
         <v>128</v>
@@ -59125,6 +59012,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI265" xr:uid="{BD582730-5F6B-4750-B793-5B32C3EE67C0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>